--- a/restaurantAppdata.xlsx
+++ b/restaurantAppdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="135" windowWidth="11460" windowHeight="7950" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="195" yWindow="135" windowWidth="11460" windowHeight="7950" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="restaurant" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="226">
   <si>
     <t>name</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>left off here</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1070,14 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1188,13 +1198,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2333,7 +2346,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2347,7 +2360,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2360,8 +2373,11 @@
       <c r="D98" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2375,7 +2391,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2389,7 +2405,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2403,7 +2419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2413,8 +2429,11 @@
       <c r="C102">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -2425,7 +2444,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -2439,7 +2458,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2450,7 +2469,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2461,7 +2480,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2472,7 +2491,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2483,7 +2502,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2497,7 +2516,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
@@ -2519,7 +2538,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -3263,11 +3282,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3904,7 +3926,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,10 +3966,13 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3999,7 +4024,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4287,8 +4312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B81"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5302,7 +5327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
